--- a/PMSheets/PM19_02_19 .xlsx
+++ b/PMSheets/PM19_02_19 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Admin\project-proposal-walliserwagner\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64124AEA-C79A-45E7-B680-0903DC491148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02A879-A51F-4BA1-9F79-A9DEFB5C142E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E0BBA045-77F2-490B-811A-0A4098F11621}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,10 +446,10 @@
         <v>2</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -469,10 +469,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
